--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.1</t>
+    <t>193.13</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -287,13 +287,85 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>Atto da trascrivere</t>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Sentenza Tribunale Italiano</t>
   </si>
   <si>
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneNascita.atto.enteEstero</t>
+    <t>evento.enteDichiarante</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -311,18 +383,6 @@
     <t>nomeEnte</t>
   </si>
   <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -347,84 +407,6 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Atto nascita intestatario</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Autorità mittente</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.autoritaMittente</t>
-  </si>
-  <si>
     <t>Dati della trascrizione</t>
   </si>
   <si>
@@ -441,6 +423,18 @@
   </si>
   <si>
     <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Nuovo nome</t>
+  </si>
+  <si>
+    <t>nuovoNome</t>
+  </si>
+  <si>
+    <t>Nuovo cognome</t>
+  </si>
+  <si>
+    <t>nuovoCognome</t>
   </si>
 </sst>
 </file>
@@ -499,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.2734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
@@ -1981,7 +1975,7 @@
         <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>93</v>
@@ -2081,7 +2075,7 @@
         <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>93</v>
@@ -2101,13 +2095,13 @@
         <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2118,16 +2112,16 @@
         <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2138,16 +2132,16 @@
         <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2155,19 +2149,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2175,19 +2169,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2195,19 +2189,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2215,19 +2209,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2235,19 +2229,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2255,19 +2249,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2275,19 +2269,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2295,19 +2289,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2315,19 +2309,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2335,7 +2329,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>129</v>
@@ -2344,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>130</v>
@@ -2355,19 +2349,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2375,19 +2369,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2395,19 +2389,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2415,121 +2409,21 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F101" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -505,6 +511,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -526,65 +533,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -606,1825 +625,2101 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -511,7 +511,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,28 +32,31 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita intestatario</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sentenza del tribunale</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.13</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita intestatario</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sentenza del tribunale</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.13</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -626,2100 +629,2100 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -350,22 +356,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Sentenza Tribunale Italiano</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -985,7 +991,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -1077,7 +1083,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -1186,19 +1192,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1209,19 +1215,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1232,19 +1238,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1255,19 +1261,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1278,19 +1284,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1301,19 +1307,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1324,19 +1330,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1347,19 +1353,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1370,19 +1376,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1393,19 +1399,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1416,19 +1422,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1439,19 +1445,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1462,7 +1468,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>79</v>
@@ -1471,10 +1477,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1485,7 +1491,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>80</v>
@@ -1494,10 +1500,10 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1508,19 +1514,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1531,19 +1537,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>83</v>
@@ -1563,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1577,7 +1583,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>84</v>
@@ -1586,10 +1592,10 @@
         <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1600,7 +1606,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>85</v>
@@ -1609,10 +1615,10 @@
         <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,7 +1882,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>75</v>
@@ -1885,10 +1891,10 @@
         <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,7 +1905,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>76</v>
@@ -1908,10 +1914,10 @@
         <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2066,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2089,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2112,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2181,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2201,16 +2207,16 @@
         <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2224,16 +2230,16 @@
         <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2247,16 +2253,16 @@
         <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2273,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2296,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2319,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2457,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2503,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2526,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2549,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2572,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2595,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2641,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2664,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2687,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2704,24 +2710,93 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
+      <c r="B99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -227,6 +227,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -294,6 +318,12 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -508,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -518,7 +548,7 @@
     <col min="2" max="2" width="42.2734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1215,19 +1245,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1238,19 +1268,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1261,19 +1291,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1284,19 +1314,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1307,19 +1337,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1330,19 +1360,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1353,19 +1383,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1376,19 +1406,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1399,19 +1429,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1422,19 +1452,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1445,19 +1475,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1468,19 +1498,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1521,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1544,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1567,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1590,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1613,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1636,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1659,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1682,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1705,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1728,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1751,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1774,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1797,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1820,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1843,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1866,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1889,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,7 +1912,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>75</v>
@@ -1891,10 +1921,10 @@
         <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1935,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1958,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1981,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,19 +2004,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2027,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2050,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,7 +2073,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>81</v>
@@ -2052,10 +2082,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,7 +2096,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>82</v>
@@ -2075,10 +2105,10 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,7 +2119,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>83</v>
@@ -2098,10 +2128,10 @@
         <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,7 +2142,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>84</v>
@@ -2121,10 +2151,10 @@
         <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,7 +2165,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>85</v>
@@ -2144,10 +2174,10 @@
         <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,7 +2188,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>86</v>
@@ -2167,10 +2197,10 @@
         <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2211,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2234,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2257,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2280,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2303,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2326,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2349,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2372,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2395,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2418,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2441,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2464,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2487,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2510,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2533,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2556,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2579,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2625,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2648,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2671,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2694,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2717,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2740,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2763,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2786,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2779,24 +2809,346 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -275,10 +281,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -538,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -837,7 +840,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -929,7 +932,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
@@ -1044,7 +1047,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -1136,7 +1139,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -1337,19 +1340,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1360,19 +1363,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1383,19 +1386,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1406,19 +1409,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1429,19 +1432,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1452,19 +1455,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1475,19 +1478,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1498,19 +1501,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1521,7 +1524,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>85</v>
@@ -1530,10 +1533,10 @@
         <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1544,7 +1547,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>86</v>
@@ -1553,10 +1556,10 @@
         <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1567,19 +1570,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1590,19 +1593,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1613,19 +1616,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1639,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1662,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1685,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1708,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1731,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1754,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1777,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1800,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1823,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1846,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1869,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1892,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1915,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1938,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1961,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1984,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2007,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2030,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2053,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2076,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2099,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2122,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2145,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2168,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2191,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2214,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2237,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2260,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2283,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2306,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2329,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2352,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2375,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2398,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2421,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2444,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2467,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2490,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2513,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2536,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2559,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2582,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2605,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2628,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2651,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2674,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2697,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2720,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2743,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2766,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2789,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2812,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2835,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2855,19 +2858,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2878,19 +2881,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2901,19 +2904,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2924,19 +2927,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2947,19 +2950,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2970,19 +2973,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2993,19 +2996,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3016,19 +3019,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3039,19 +3042,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3062,19 +3065,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3085,19 +3088,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3108,19 +3111,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3131,24 +3134,93 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -541,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1116,7 +1122,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -1139,7 +1145,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -1363,19 +1369,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1386,19 +1392,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1409,19 +1415,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1432,19 +1438,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1455,19 +1461,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1478,19 +1484,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1501,19 +1507,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1530,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1547,19 +1553,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1576,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1593,19 +1599,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1622,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1645,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1668,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1691,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1714,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1731,7 +1737,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>92</v>
@@ -1740,10 +1746,10 @@
         <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1754,7 +1760,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>93</v>
@@ -1763,10 +1769,10 @@
         <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1777,7 +1783,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>94</v>
@@ -1786,10 +1792,10 @@
         <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1800,7 +1806,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>95</v>
@@ -1809,10 +1815,10 @@
         <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1823,7 +1829,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>96</v>
@@ -1832,10 +1838,10 @@
         <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1852,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1875,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1898,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1921,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1944,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1967,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1990,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2013,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2036,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2059,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2082,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2105,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2128,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2151,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2174,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2197,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2220,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2237,7 +2243,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>87</v>
@@ -2246,10 +2252,10 @@
         <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>88</v>
@@ -2269,10 +2275,10 @@
         <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2289,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2312,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2335,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2358,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2375,7 +2381,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>91</v>
@@ -2384,10 +2390,10 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2404,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2427,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2450,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2473,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2496,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2519,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2542,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2565,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2588,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2611,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2634,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2657,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2680,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2700,16 +2706,16 @@
         <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2723,16 +2729,16 @@
         <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2746,16 +2752,16 @@
         <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2772,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2795,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2818,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2841,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2864,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2887,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2910,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2933,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2956,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2979,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2996,19 +3002,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3025,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3048,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3071,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3094,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3117,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3140,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3163,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3186,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3203,24 +3209,93 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
+      <c r="B119" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1717,7 +1723,7 @@
         <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>28</v>
@@ -1726,7 +1732,7 @@
         <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1740,7 +1746,7 @@
         <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>28</v>
@@ -1749,7 +1755,7 @@
         <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1763,7 +1769,7 @@
         <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>28</v>
@@ -1772,7 +1778,7 @@
         <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1786,7 +1792,7 @@
         <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>28</v>
@@ -1795,7 +1801,7 @@
         <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1809,7 +1815,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>28</v>
@@ -1818,7 +1824,7 @@
         <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1832,7 +1838,7 @@
         <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>28</v>
@@ -1841,7 +1847,7 @@
         <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1855,7 +1861,7 @@
         <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>28</v>
@@ -1864,7 +1870,7 @@
         <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1878,7 +1884,7 @@
         <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>28</v>
@@ -1887,7 +1893,7 @@
         <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1901,16 +1907,16 @@
         <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1970,16 +1976,16 @@
         <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1993,7 +1999,7 @@
         <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>28</v>
@@ -2002,7 +2008,7 @@
         <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2016,7 +2022,7 @@
         <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>28</v>
@@ -2025,7 +2031,7 @@
         <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2039,7 +2045,7 @@
         <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>28</v>
@@ -2048,7 +2054,7 @@
         <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2062,7 +2068,7 @@
         <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>28</v>
@@ -2071,7 +2077,7 @@
         <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2088,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2111,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2134,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2157,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2180,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2203,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2249,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2272,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2295,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2318,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2341,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2364,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2387,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2410,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2427,7 +2433,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>92</v>
@@ -2436,10 +2442,10 @@
         <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2456,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2473,7 +2479,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>94</v>
@@ -2482,10 +2488,10 @@
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2496,7 +2502,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>95</v>
@@ -2505,10 +2511,10 @@
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2519,7 +2525,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>96</v>
@@ -2528,10 +2534,10 @@
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2542,7 +2548,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>97</v>
@@ -2551,10 +2557,10 @@
         <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2565,7 +2571,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>98</v>
@@ -2574,10 +2580,10 @@
         <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2594,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2617,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2640,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2663,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2686,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2703,19 +2709,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2726,19 +2732,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2755,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2775,16 +2781,16 @@
         <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2798,16 +2804,16 @@
         <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2824,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2847,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2864,19 +2870,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2887,19 +2893,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2910,19 +2916,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2933,19 +2939,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2962,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2979,19 +2985,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3008,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3031,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3054,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3071,19 +3077,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3094,19 +3100,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3117,19 +3123,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3146,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3169,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3186,19 +3192,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3209,19 +3215,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3232,19 +3238,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3255,19 +3261,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3278,24 +3284,70 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3083,7 +3089,7 @@
         <v>133</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>113</v>
@@ -3100,19 +3106,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3123,16 +3129,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>140</v>
@@ -3146,7 +3152,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>141</v>
@@ -3155,7 +3161,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>142</v>
@@ -3169,7 +3175,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>143</v>
@@ -3178,7 +3184,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>144</v>
@@ -3192,7 +3198,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>145</v>
@@ -3201,7 +3207,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>146</v>
@@ -3215,7 +3221,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>147</v>
@@ -3224,7 +3230,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>148</v>
@@ -3238,7 +3244,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>149</v>
@@ -3247,7 +3253,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>150</v>
@@ -3261,19 +3267,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3284,16 +3290,16 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>156</v>
@@ -3307,16 +3313,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>158</v>
@@ -3330,16 +3336,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>160</v>
@@ -3348,6 +3354,29 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Madre</t>
@@ -559,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1404,19 +1410,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1427,19 +1433,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1450,19 +1456,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1473,19 +1479,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1496,19 +1502,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1519,19 +1525,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1542,19 +1548,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1565,19 +1571,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1588,19 +1594,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1617,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1640,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1657,19 +1663,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1686,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1709,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1732,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1755,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1801,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1824,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1847,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1870,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1893,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1939,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1956,7 +1962,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>103</v>
@@ -1965,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>104</v>
@@ -1979,7 +1985,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>105</v>
@@ -1988,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>106</v>
@@ -2002,19 +2008,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2031,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2048,19 +2054,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2071,19 +2077,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2094,19 +2100,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2117,19 +2123,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2140,19 +2146,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2163,19 +2169,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2186,19 +2192,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2209,19 +2215,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2238,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2255,19 +2261,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2278,19 +2284,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2307,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2330,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2353,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2376,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2393,19 +2399,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2416,19 +2422,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2468,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2491,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2514,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2537,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2560,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2583,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2606,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2629,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2646,19 +2652,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2669,7 +2675,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>103</v>
@@ -2678,7 +2684,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>104</v>
@@ -2692,7 +2698,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>105</v>
@@ -2701,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>106</v>
@@ -2715,19 +2721,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2738,19 +2744,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2761,19 +2767,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2784,19 +2790,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2807,19 +2813,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2833,16 +2839,16 @@
         <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2853,16 +2859,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>116</v>
@@ -2876,7 +2882,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>117</v>
@@ -2885,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>118</v>
@@ -2899,7 +2905,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>119</v>
@@ -2908,7 +2914,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>120</v>
@@ -2922,7 +2928,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>121</v>
@@ -2931,7 +2937,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>122</v>
@@ -2945,7 +2951,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>123</v>
@@ -2954,7 +2960,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>124</v>
@@ -2968,7 +2974,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>125</v>
@@ -2977,10 +2983,10 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2991,19 +2997,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3014,7 +3020,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>128</v>
@@ -3023,10 +3029,10 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3037,19 +3043,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3060,7 +3066,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>131</v>
@@ -3069,7 +3075,7 @@
         <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>132</v>
@@ -3083,7 +3089,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>133</v>
@@ -3092,7 +3098,7 @@
         <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>134</v>
@@ -3106,16 +3112,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>136</v>
@@ -3129,19 +3135,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3152,16 +3158,16 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>142</v>
@@ -3175,7 +3181,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>143</v>
@@ -3184,7 +3190,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>144</v>
@@ -3198,7 +3204,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>145</v>
@@ -3207,7 +3213,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>146</v>
@@ -3221,7 +3227,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>147</v>
@@ -3230,7 +3236,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>148</v>
@@ -3244,7 +3250,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>149</v>
@@ -3253,7 +3259,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>150</v>
@@ -3267,7 +3273,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>151</v>
@@ -3276,7 +3282,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>152</v>
@@ -3290,19 +3296,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3313,16 +3319,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>158</v>
@@ -3336,16 +3342,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>160</v>
@@ -3359,16 +3365,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>162</v>
@@ -3377,6 +3383,29 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,12 +261,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Madre</t>
@@ -565,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1410,19 +1404,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1433,19 +1427,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1456,19 +1450,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1479,19 +1473,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1502,19 +1496,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1525,19 +1519,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1548,19 +1542,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1571,19 +1565,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1588,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1611,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1634,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1657,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1680,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1703,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1726,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1749,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1772,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1795,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1818,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1841,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1864,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1887,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1910,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1933,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1962,7 +1956,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>103</v>
@@ -1971,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>104</v>
@@ -1985,7 +1979,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>105</v>
@@ -1994,7 +1988,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>106</v>
@@ -2008,19 +2002,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2025,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2048,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2077,19 +2071,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2094,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2123,19 +2117,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2140,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2163,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2186,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2209,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2232,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2255,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2301,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2324,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2347,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2370,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2393,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2416,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2439,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2462,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2485,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2508,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2531,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2554,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2577,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2600,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2623,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2646,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2675,7 +2669,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>103</v>
@@ -2684,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>104</v>
@@ -2698,7 +2692,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>105</v>
@@ -2707,7 +2701,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>106</v>
@@ -2721,19 +2715,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2738,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2767,19 +2761,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2790,19 +2784,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2813,19 +2807,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2839,16 +2833,16 @@
         <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2859,16 +2853,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>116</v>
@@ -2882,7 +2876,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>117</v>
@@ -2891,7 +2885,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>118</v>
@@ -2905,7 +2899,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>119</v>
@@ -2914,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>120</v>
@@ -2928,7 +2922,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>121</v>
@@ -2937,7 +2931,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>122</v>
@@ -2951,7 +2945,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>123</v>
@@ -2960,7 +2954,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>124</v>
@@ -2974,7 +2968,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>125</v>
@@ -2983,10 +2977,10 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2997,19 +2991,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3020,7 +3014,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>128</v>
@@ -3029,10 +3023,10 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3037,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3066,7 +3060,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>131</v>
@@ -3075,7 +3069,7 @@
         <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>132</v>
@@ -3089,7 +3083,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>133</v>
@@ -3098,7 +3092,7 @@
         <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>134</v>
@@ -3112,16 +3106,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>136</v>
@@ -3135,19 +3129,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3158,16 +3152,16 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>142</v>
@@ -3181,7 +3175,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>143</v>
@@ -3190,7 +3184,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>144</v>
@@ -3204,7 +3198,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>145</v>
@@ -3213,7 +3207,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>146</v>
@@ -3227,7 +3221,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>147</v>
@@ -3236,7 +3230,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>148</v>
@@ -3250,7 +3244,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>149</v>
@@ -3259,7 +3253,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>150</v>
@@ -3273,7 +3267,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>151</v>
@@ -3282,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>152</v>
@@ -3296,19 +3290,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3319,16 +3313,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>158</v>
@@ -3342,16 +3336,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>160</v>
@@ -3365,16 +3359,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>162</v>
@@ -3383,29 +3377,6 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -565,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -910,7 +922,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -933,7 +945,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
@@ -979,7 +991,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -1002,7 +1014,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
@@ -1094,7 +1106,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
@@ -1117,7 +1129,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
@@ -1140,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -1163,7 +1175,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -1433,19 +1445,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1456,19 +1468,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1479,19 +1491,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1502,19 +1514,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1525,19 +1537,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1548,19 +1560,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1571,19 +1583,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1606,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1629,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1652,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1675,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1698,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1721,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1744,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1767,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1790,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1813,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1836,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1847,7 +1859,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>98</v>
@@ -1856,10 +1868,10 @@
         <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1882,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1893,7 +1905,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>100</v>
@@ -1902,10 +1914,10 @@
         <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1916,7 +1928,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>101</v>
@@ -1925,10 +1937,10 @@
         <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1939,7 +1951,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>102</v>
@@ -1948,10 +1960,10 @@
         <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1974,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1985,19 +1997,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2008,19 +2020,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2043,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2066,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2077,19 +2089,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2112,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2123,19 +2135,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2158,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2181,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2204,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2227,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2250,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2273,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2296,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2319,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2342,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2365,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2388,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2411,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2434,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2457,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2468,7 +2480,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>94</v>
@@ -2477,10 +2489,10 @@
         <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2503,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2514,7 +2526,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>96</v>
@@ -2523,10 +2535,10 @@
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2549,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2572,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2595,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2618,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2641,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2664,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2675,19 +2687,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2698,19 +2710,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2721,19 +2733,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2756,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2767,19 +2779,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2790,19 +2802,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2813,19 +2825,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2836,16 +2848,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>110</v>
@@ -2859,19 +2871,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2882,19 +2894,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2905,19 +2917,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2928,19 +2940,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2963,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2974,19 +2986,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2997,19 +3009,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3032,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3055,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3078,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3101,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3112,19 +3124,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3135,19 +3147,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3170,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3181,19 +3193,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3204,19 +3216,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3227,19 +3239,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3250,19 +3262,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3273,19 +3285,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3296,19 +3308,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3319,19 +3331,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3342,19 +3354,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3365,19 +3377,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3388,24 +3400,162 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E123" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>19</v>
       </c>
     </row>
